--- a/data/links.xlsx
+++ b/data/links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\only_readmes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F678748-5003-4498-866F-B652B825D6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62FE6B85-4E10-4B97-98B8-A82238A3058D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="17520" xr2:uid="{2E2B4428-0ED6-4F07-9A40-88FCB22F6A60}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2E2B4428-0ED6-4F07-9A40-88FCB22F6A60}"/>
   </bookViews>
   <sheets>
     <sheet name="English" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="197">
   <si>
     <t>Category</t>
   </si>
@@ -616,6 +616,18 @@
   </si>
   <si>
     <t>https://youtu.be/Yh127JyQKk4</t>
+  </si>
+  <si>
+    <t>Mortgage Analysis</t>
+  </si>
+  <si>
+    <t>Combined-Loan-to-Value</t>
+  </si>
+  <si>
+    <t>https://youtu.be/YurOhS5Cwq8</t>
+  </si>
+  <si>
+    <t>https://youtu.be/GElkDW-AaiU</t>
   </si>
 </sst>
 </file>
@@ -998,10 +1010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D99564-D1DD-43A9-84D6-3D9D11EE9895}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1386,21 +1398,33 @@
         <v>150</v>
       </c>
     </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>193</v>
+      </c>
+      <c r="B28" t="s">
+        <v>194</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D27" r:id="rId1" xr:uid="{A180A2C2-23D6-417F-A8B8-5828452C276E}"/>
+    <hyperlink ref="D28" r:id="rId2" xr:uid="{0579DA10-CA28-4189-BD17-60EFC81902C6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44DDC66B-0FDD-4074-BCC5-74B5022F1D6B}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1799,12 +1823,24 @@
         <v>151</v>
       </c>
     </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>193</v>
+      </c>
+      <c r="B29" t="s">
+        <v>194</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D20" r:id="rId1" xr:uid="{F50146AA-8EAF-4FE3-AFA6-9AE79227D3BF}"/>
     <hyperlink ref="D15" r:id="rId2" xr:uid="{5F1533BD-C5AB-415E-8F29-3C1F624650B8}"/>
+    <hyperlink ref="D29" r:id="rId3" xr:uid="{C139E005-9140-49BE-A695-AB9E451C1336}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>